--- a/kc_schools.xlsx
+++ b/kc_schools.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayzel\Documents\Python\cleanDreamTeam\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="1" r:id="rId1"/>
@@ -1431,7 +1426,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1549,7 +1544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1582,26 +1577,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1634,23 +1612,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1826,19 +1787,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="D494" sqref="D494"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="115.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1863,7 +1824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1877,7 +1838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1891,7 +1852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1905,7 +1866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1919,7 +1880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1933,7 +1894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1947,7 +1908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1961,7 +1922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1975,7 +1936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1989,7 +1950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2003,7 +1964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2017,7 +1978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2031,7 +1992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2045,7 +2006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2059,7 +2020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2073,7 +2034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2087,7 +2048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2101,7 +2062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2115,7 +2076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2129,7 +2090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2143,7 +2104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2157,7 +2118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2171,7 +2132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2185,7 +2146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2199,7 +2160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2213,7 +2174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2227,7 +2188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2241,7 +2202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2255,7 +2216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2269,7 +2230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2283,7 +2244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2297,7 +2258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2311,7 +2272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2325,7 +2286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2339,7 +2300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2353,7 +2314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2367,7 +2328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2381,7 +2342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2395,7 +2356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2409,7 +2370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2423,7 +2384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2437,7 +2398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2451,7 +2412,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2465,7 +2426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2479,7 +2440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2493,7 +2454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2507,7 +2468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2521,7 +2482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2535,7 +2496,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2549,7 +2510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2563,7 +2524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2577,7 +2538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2591,7 +2552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2605,7 +2566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2619,7 +2580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2633,7 +2594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2647,7 +2608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2661,7 +2622,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2675,7 +2636,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2689,7 +2650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2703,7 +2664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2717,7 +2678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2731,7 +2692,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2745,7 +2706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2759,7 +2720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2773,7 +2734,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2787,7 +2748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2801,7 +2762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2815,7 +2776,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2829,7 +2790,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2843,7 +2804,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2857,7 +2818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2871,7 +2832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2885,7 +2846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2899,7 +2860,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2913,7 +2874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2927,7 +2888,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2941,7 +2902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2955,7 +2916,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2969,7 +2930,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2983,7 +2944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2997,7 +2958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3011,7 +2972,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3025,7 +2986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3039,7 +3000,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3053,7 +3014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3067,7 +3028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3081,7 +3042,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3095,7 +3056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3109,7 +3070,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3123,7 +3084,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3137,7 +3098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3151,7 +3112,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3165,7 +3126,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3179,7 +3140,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3193,7 +3154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3207,7 +3168,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3221,7 +3182,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3235,7 +3196,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3249,7 +3210,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3263,7 +3224,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3277,7 +3238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3291,7 +3252,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3305,7 +3266,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3319,7 +3280,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3333,7 +3294,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3347,7 +3308,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3361,7 +3322,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3375,7 +3336,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3389,7 +3350,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3403,7 +3364,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3417,7 +3378,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3431,7 +3392,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3445,7 +3406,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3459,7 +3420,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3473,7 +3434,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3487,7 +3448,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3501,7 +3462,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3515,7 +3476,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3529,7 +3490,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3543,7 +3504,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3557,7 +3518,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3571,7 +3532,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3585,7 +3546,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3599,7 +3560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3613,7 +3574,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3627,7 +3588,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3641,7 +3602,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3655,7 +3616,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3669,7 +3630,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3683,7 +3644,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3697,7 +3658,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3711,7 +3672,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3725,7 +3686,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3739,7 +3700,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3753,7 +3714,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3767,7 +3728,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3781,7 +3742,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3795,7 +3756,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3809,7 +3770,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3823,7 +3784,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3837,7 +3798,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3851,7 +3812,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3865,7 +3826,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3879,7 +3840,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3893,7 +3854,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3907,7 +3868,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3921,7 +3882,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3935,7 +3896,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3949,7 +3910,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3963,7 +3924,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3977,7 +3938,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3991,7 +3952,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4005,7 +3966,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4019,7 +3980,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4033,7 +3994,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4047,7 +4008,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4061,7 +4022,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4075,7 +4036,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4089,7 +4050,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4103,7 +4064,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4117,7 +4078,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4131,7 +4092,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4145,7 +4106,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4159,7 +4120,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4173,7 +4134,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4187,7 +4148,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4201,7 +4162,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4215,7 +4176,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4229,7 +4190,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4243,7 +4204,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4257,7 +4218,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4271,7 +4232,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4285,7 +4246,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4299,7 +4260,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4313,7 +4274,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4327,7 +4288,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4341,7 +4302,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4355,7 +4316,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4369,7 +4330,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4383,7 +4344,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4397,7 +4358,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4411,7 +4372,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4425,7 +4386,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4439,7 +4400,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4453,7 +4414,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4467,7 +4428,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4481,7 +4442,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4495,7 +4456,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4509,7 +4470,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4523,7 +4484,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4537,7 +4498,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4551,7 +4512,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4565,7 +4526,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4579,7 +4540,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4593,7 +4554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4607,7 +4568,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4621,7 +4582,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4635,7 +4596,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4649,7 +4610,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4663,7 +4624,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4677,7 +4638,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4691,7 +4652,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4705,7 +4666,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4719,7 +4680,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4733,7 +4694,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -4747,7 +4708,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4761,7 +4722,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -4775,7 +4736,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -4789,7 +4750,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -4803,7 +4764,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -4817,7 +4778,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4831,7 +4792,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4845,7 +4806,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4859,7 +4820,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4873,7 +4834,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4887,7 +4848,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -4901,7 +4862,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -4915,7 +4876,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -4929,7 +4890,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -4943,7 +4904,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -4957,7 +4918,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -4971,7 +4932,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -4985,7 +4946,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -4999,7 +4960,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5013,7 +4974,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5027,7 +4988,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5041,7 +5002,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5055,7 +5016,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5069,7 +5030,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5083,7 +5044,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5097,7 +5058,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5111,7 +5072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5125,7 +5086,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5139,7 +5100,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -5153,7 +5114,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -5167,7 +5128,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5181,7 +5142,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5195,7 +5156,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -5209,7 +5170,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5223,7 +5184,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -5237,7 +5198,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -5251,7 +5212,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5265,7 +5226,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5279,7 +5240,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5293,7 +5254,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -5307,7 +5268,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -5321,7 +5282,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5335,7 +5296,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5349,7 +5310,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -5363,7 +5324,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5377,7 +5338,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5391,7 +5352,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -5405,7 +5366,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -5419,7 +5380,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -5433,7 +5394,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -5447,7 +5408,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -5461,7 +5422,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -5475,7 +5436,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -5489,7 +5450,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -5503,7 +5464,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -5517,7 +5478,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -5531,7 +5492,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -5545,7 +5506,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -5559,7 +5520,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -5573,7 +5534,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -5587,7 +5548,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -5601,7 +5562,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -5615,7 +5576,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -5629,7 +5590,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -5643,7 +5604,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -5657,7 +5618,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -5671,7 +5632,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -5685,7 +5646,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -5699,7 +5660,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -5713,7 +5674,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -5727,7 +5688,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -5741,7 +5702,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -5755,7 +5716,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -5769,7 +5730,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -5783,7 +5744,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -5797,7 +5758,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -5811,7 +5772,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -5825,7 +5786,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -5839,7 +5800,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -5853,7 +5814,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -5867,7 +5828,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -5881,7 +5842,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -5895,7 +5856,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -5909,7 +5870,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -5923,7 +5884,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -5937,7 +5898,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -5951,7 +5912,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -5965,7 +5926,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -5979,7 +5940,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -5993,7 +5954,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -6007,7 +5968,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -6021,7 +5982,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -6035,7 +5996,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -6049,7 +6010,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -6063,7 +6024,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -6077,7 +6038,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -6091,7 +6052,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -6105,7 +6066,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -6119,7 +6080,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -6133,7 +6094,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -6147,7 +6108,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -6161,7 +6122,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -6175,7 +6136,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -6189,7 +6150,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -6203,7 +6164,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -6217,7 +6178,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -6231,7 +6192,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -6245,7 +6206,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -6259,7 +6220,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -6273,7 +6234,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -6287,7 +6248,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -6301,7 +6262,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -6315,7 +6276,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -6329,7 +6290,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -6343,7 +6304,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -6357,7 +6318,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -6371,7 +6332,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -6385,7 +6346,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -6399,7 +6360,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -6413,7 +6374,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -6427,7 +6388,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -6441,7 +6402,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -6455,7 +6416,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -6469,7 +6430,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -6483,7 +6444,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -6497,7 +6458,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -6511,7 +6472,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -6525,7 +6486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -6539,7 +6500,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -6553,7 +6514,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -6567,7 +6528,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -6581,7 +6542,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -6595,7 +6556,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -6609,7 +6570,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -6623,7 +6584,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -6637,7 +6598,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -6651,7 +6612,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -6665,7 +6626,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -6679,7 +6640,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -6693,7 +6654,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -6707,7 +6668,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -6721,7 +6682,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -6735,7 +6696,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -6749,7 +6710,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -6763,7 +6724,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -6777,7 +6738,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -6791,7 +6752,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -6805,7 +6766,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -6819,7 +6780,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -6833,7 +6794,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -6847,7 +6808,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -6861,7 +6822,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -6875,7 +6836,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -6889,7 +6850,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -6903,7 +6864,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -6917,7 +6878,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -6931,7 +6892,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -6945,7 +6906,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -6959,7 +6920,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -6973,7 +6934,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -6987,7 +6948,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -7001,7 +6962,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -7015,7 +6976,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -7029,7 +6990,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -7043,7 +7004,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -7057,7 +7018,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -7071,7 +7032,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -7085,7 +7046,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -7099,7 +7060,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -7113,7 +7074,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -7127,7 +7088,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -7141,7 +7102,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -7155,7 +7116,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -7169,7 +7130,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -7183,7 +7144,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -7197,7 +7158,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -7211,7 +7172,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -7225,7 +7186,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -7239,7 +7200,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -7253,7 +7214,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -7267,7 +7228,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -7281,7 +7242,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -7295,7 +7256,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -7309,7 +7270,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -7323,7 +7284,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -7337,7 +7298,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -7351,7 +7312,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -7365,7 +7326,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -7379,7 +7340,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -7393,7 +7354,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -7407,7 +7368,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -7421,7 +7382,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -7435,7 +7396,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -7449,7 +7410,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -7463,7 +7424,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -7477,7 +7438,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -7491,7 +7452,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -7505,7 +7466,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -7519,7 +7480,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -7533,7 +7494,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -7547,7 +7508,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -7561,7 +7522,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -7575,7 +7536,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -7589,7 +7550,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -7603,7 +7564,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -7617,7 +7578,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -7631,7 +7592,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -7645,7 +7606,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -7659,7 +7620,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -7673,7 +7634,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -7687,7 +7648,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -7701,7 +7662,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -7715,7 +7676,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -7729,7 +7690,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -7743,7 +7704,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -7757,7 +7718,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -7771,7 +7732,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -7785,7 +7746,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -7799,7 +7760,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -7813,7 +7774,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -7827,7 +7788,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -7841,7 +7802,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -7855,7 +7816,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -7869,7 +7830,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -7883,7 +7844,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -7897,7 +7858,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -7911,7 +7872,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -7925,7 +7886,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -7939,7 +7900,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -7953,7 +7914,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -7967,7 +7928,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -7981,7 +7942,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -7995,7 +7956,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -8009,7 +7970,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -8023,7 +7984,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -8037,7 +7998,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -8051,7 +8012,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -8065,7 +8026,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -8079,7 +8040,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -8093,7 +8054,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -8107,7 +8068,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -8121,7 +8082,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -8135,7 +8096,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -8149,7 +8110,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -8163,7 +8124,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -8177,7 +8138,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -8191,7 +8152,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -8205,7 +8166,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -8219,7 +8180,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -8233,7 +8194,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -8247,7 +8208,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -8261,7 +8222,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -8275,7 +8236,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -8289,7 +8250,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -8303,7 +8264,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -8317,7 +8278,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -8331,7 +8292,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -8345,7 +8306,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -8359,7 +8320,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -8373,7 +8334,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -8387,7 +8348,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -8401,7 +8362,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -8415,7 +8376,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -8429,7 +8390,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -8443,7 +8404,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -8457,7 +8418,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -8471,7 +8432,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -8485,7 +8446,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -8499,7 +8460,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -8513,7 +8474,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -8527,7 +8488,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -8541,7 +8502,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -8555,7 +8516,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -8569,7 +8530,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -8583,7 +8544,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -8597,7 +8558,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -8611,7 +8572,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -8625,7 +8586,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -8639,7 +8600,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -8653,7 +8614,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -8667,7 +8628,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -8681,7 +8642,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -8695,7 +8656,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -8709,7 +8670,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -8723,7 +8684,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -8737,7 +8698,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -8751,7 +8712,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -8765,7 +8726,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -8779,7 +8740,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -8793,7 +8754,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -8807,7 +8768,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -8821,7 +8782,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -8836,7 +8797,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D500" xr:uid="{45AC8E5E-8A1E-4F0C-BF9C-7535C6078A06}">
+  <autoFilter ref="A1:D500">
     <sortState ref="A2:D500">
       <sortCondition ref="A1:A500"/>
     </sortState>

--- a/kc_schools.xlsx
+++ b/kc_schools.xlsx
@@ -10,14 +10,14 @@
     <sheet name="schools" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schools!$A$1:$D$500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schools!$A$1:$E$500</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="472">
   <si>
     <t>lat</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Rainier Beach High School</t>
   </si>
   <si>
-    <t>Emerson Elementary School</t>
-  </si>
-  <si>
     <t>Nathan Hale High School</t>
   </si>
   <si>
@@ -1421,6 +1418,21 @@
   </si>
   <si>
     <t>Neely-O'Brien Elementary School</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Emerson ` School</t>
+  </si>
+  <si>
+    <t>Elementary</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1475,13 +1487,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1788,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="D494" sqref="D494"/>
+    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1823,7 @@
     <col min="4" max="4" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,8 +1833,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1823,8 +1850,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1835,10 +1865,13 @@
         <v>-122.25882799999999</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="E3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1849,10 +1882,13 @@
         <v>-122.2956588</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1863,10 +1899,13 @@
         <v>-122.2932309</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1877,10 +1916,13 @@
         <v>-122.329337</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1891,10 +1933,13 @@
         <v>-122.3068341</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1905,10 +1950,13 @@
         <v>-122.2232655</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1919,10 +1967,13 @@
         <v>-122.2310014</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1933,10 +1984,13 @@
         <v>-122.22197370000001</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1947,10 +2001,13 @@
         <v>-122.23032739999999</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1961,10 +2018,13 @@
         <v>-122.37891279999999</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1975,10 +2035,13 @@
         <v>-122.05328299999999</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1989,10 +2052,13 @@
         <v>-122.3523222</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2003,10 +2069,13 @@
         <v>-122.3332365</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2017,10 +2086,13 @@
         <v>-122.30773050000001</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2031,10 +2103,13 @@
         <v>-122.304303</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2045,10 +2120,13 @@
         <v>-122.3035268</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2059,10 +2137,13 @@
         <v>-122.3232687</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2073,10 +2154,13 @@
         <v>-122.34865499999999</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2087,10 +2171,13 @@
         <v>-122.34865499999999</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2101,10 +2188,13 @@
         <v>-122.3438579</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2115,10 +2205,13 @@
         <v>-122.0214969</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2129,10 +2222,13 @@
         <v>-122.1522617</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2143,10 +2239,13 @@
         <v>-122.1492291</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2157,10 +2256,13 @@
         <v>-122.1389863</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2171,10 +2273,13 @@
         <v>-122.125736</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2185,10 +2290,13 @@
         <v>-122.29738</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2199,10 +2307,13 @@
         <v>-122.276262</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2213,10 +2324,13 @@
         <v>-122.28475709999999</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2227,10 +2341,13 @@
         <v>-122.2826414</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2241,10 +2358,13 @@
         <v>-122.2192398</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2255,10 +2375,13 @@
         <v>-122.22485570000001</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2269,10 +2392,13 @@
         <v>-122.37433799999999</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2283,10 +2409,13 @@
         <v>-122.39168100000001</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2297,10 +2426,13 @@
         <v>-122.3629047</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2311,10 +2443,13 @@
         <v>-122.38459709999999</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2325,10 +2460,13 @@
         <v>-122.38459829999999</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2339,10 +2477,13 @@
         <v>-122.3379137</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2353,10 +2494,13 @@
         <v>-122.3491306</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2367,10 +2511,13 @@
         <v>-122.3140559</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2381,10 +2528,13 @@
         <v>-122.31814850000001</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2395,10 +2545,13 @@
         <v>-122.3014328</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2409,10 +2562,13 @@
         <v>-122.3222042</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2423,10 +2579,13 @@
         <v>-122.3248404</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2437,10 +2596,13 @@
         <v>-122.3248404</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2451,10 +2613,13 @@
         <v>-122.3412022</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2465,10 +2630,13 @@
         <v>-122.3212309</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2479,10 +2647,13 @@
         <v>-122.3371886</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E49" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2493,10 +2664,13 @@
         <v>-122.3408872</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2507,10 +2681,13 @@
         <v>-122.227141</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2521,10 +2698,13 @@
         <v>-122.228572</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2535,10 +2715,13 @@
         <v>-122.17198070000001</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2549,10 +2732,13 @@
         <v>-122.17543019999999</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E54" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2563,10 +2749,13 @@
         <v>-122.1836584</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2577,10 +2766,13 @@
         <v>-122.1855431</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2591,10 +2783,13 @@
         <v>-122.185506</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E57" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2605,10 +2800,13 @@
         <v>-122.18056780000001</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E58" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2619,10 +2817,13 @@
         <v>-122.15153119999999</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E59" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2633,10 +2834,13 @@
         <v>-122.1715456</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2647,10 +2851,13 @@
         <v>-122.15577709999999</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2661,10 +2868,13 @@
         <v>-122.2199762</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E62" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2675,10 +2885,13 @@
         <v>-122.22225400000001</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E63" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2689,10 +2902,13 @@
         <v>-122.2349117</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E64" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2703,10 +2919,13 @@
         <v>-122.22519800000001</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E65" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2717,10 +2936,13 @@
         <v>-122.3589594</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E66" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2731,10 +2953,13 @@
         <v>-122.36563599999999</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E67" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2745,10 +2970,13 @@
         <v>-122.351958</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E68" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2759,10 +2987,13 @@
         <v>-122.34893719999999</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E69" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2773,10 +3004,13 @@
         <v>-122.301866</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2787,10 +3021,13 @@
         <v>-122.3181719</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E71" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2801,10 +3038,13 @@
         <v>-122.3252348</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E72" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2815,10 +3055,13 @@
         <v>-122.290859</v>
       </c>
       <c r="D73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="E73" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2829,10 +3072,13 @@
         <v>-122.3085315</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2843,10 +3089,13 @@
         <v>-122.3125034</v>
       </c>
       <c r="D75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E75" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2857,10 +3106,13 @@
         <v>-122.3075542</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E76" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2871,10 +3123,13 @@
         <v>-122.1080377</v>
       </c>
       <c r="D77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E77" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2885,10 +3140,13 @@
         <v>-122.0985182</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2899,10 +3157,13 @@
         <v>-122.12509</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E79" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2913,10 +3174,13 @@
         <v>-122.1197909</v>
       </c>
       <c r="D80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E80" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2927,10 +3191,13 @@
         <v>-122.11304509999999</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E81" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2941,10 +3208,13 @@
         <v>-122.1198912</v>
       </c>
       <c r="D82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E82" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2955,10 +3225,13 @@
         <v>-122.0453631</v>
       </c>
       <c r="D83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E83" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2969,10 +3242,13 @@
         <v>-122.3655509</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E84" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2983,10 +3259,13 @@
         <v>-122.3540177</v>
       </c>
       <c r="D85" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E85" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2997,10 +3276,13 @@
         <v>-122.3655424</v>
       </c>
       <c r="D86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E86" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3011,10 +3293,13 @@
         <v>-122.3732327</v>
       </c>
       <c r="D87" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E87" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3025,10 +3310,13 @@
         <v>-122.3598361</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E88" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3039,10 +3327,13 @@
         <v>-122.3777192</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E89" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3053,10 +3344,13 @@
         <v>-122.3611763</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E90" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3067,10 +3361,13 @@
         <v>-122.3697493</v>
       </c>
       <c r="D91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E91" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3081,10 +3378,13 @@
         <v>-122.1734202</v>
       </c>
       <c r="D92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E92" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3095,10 +3395,13 @@
         <v>-122.1565626</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E93" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3109,10 +3412,13 @@
         <v>-122.18277449999999</v>
       </c>
       <c r="D94" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E94" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3123,10 +3429,13 @@
         <v>-122.17400910000001</v>
       </c>
       <c r="D95" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E95" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3137,10 +3446,13 @@
         <v>-122.3133615</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="E96" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3151,10 +3463,13 @@
         <v>-122.3251813</v>
       </c>
       <c r="D97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E97" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3165,10 +3480,13 @@
         <v>-122.13871039999999</v>
       </c>
       <c r="D98" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E98" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3179,10 +3497,13 @@
         <v>-122.2794413</v>
       </c>
       <c r="D99" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="E99" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3193,10 +3514,13 @@
         <v>-122.2781217</v>
       </c>
       <c r="D100" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="E100" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3207,10 +3531,13 @@
         <v>-122.28434439999999</v>
       </c>
       <c r="D101" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="E101" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3221,10 +3548,13 @@
         <v>-122.2614926</v>
       </c>
       <c r="D102" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E102" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3235,10 +3565,13 @@
         <v>-122.2804488</v>
       </c>
       <c r="D103" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E103" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3249,10 +3582,13 @@
         <v>-122.2784547</v>
       </c>
       <c r="D104" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E104" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3263,10 +3599,13 @@
         <v>-122.2830903</v>
       </c>
       <c r="D105" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E105" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3277,10 +3616,13 @@
         <v>-122.1657551</v>
       </c>
       <c r="D106" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E106" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3291,10 +3633,13 @@
         <v>-122.1599118</v>
       </c>
       <c r="D107" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E107" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3305,10 +3650,13 @@
         <v>-122.03134729999999</v>
       </c>
       <c r="D108" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E108" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3319,10 +3667,13 @@
         <v>-122.02737</v>
       </c>
       <c r="D109" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E109" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3333,10 +3684,13 @@
         <v>-122.0175342</v>
       </c>
       <c r="D110" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E110" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3347,10 +3701,13 @@
         <v>-122.01553989999999</v>
       </c>
       <c r="D111" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E111" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3361,10 +3718,13 @@
         <v>-122.01982769999999</v>
       </c>
       <c r="D112" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E112" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3375,10 +3735,13 @@
         <v>-122.0314054</v>
       </c>
       <c r="D113" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="E113" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3389,10 +3752,13 @@
         <v>-122.3398358</v>
       </c>
       <c r="D114" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E114" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3403,10 +3769,13 @@
         <v>-122.3281191</v>
       </c>
       <c r="D115" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E115" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3417,10 +3786,13 @@
         <v>-122.3281191</v>
       </c>
       <c r="D116" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E116" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3431,10 +3803,13 @@
         <v>-122.3236952</v>
       </c>
       <c r="D117" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E117" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3445,10 +3820,13 @@
         <v>-122.3236648</v>
       </c>
       <c r="D118" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E118" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3459,10 +3837,13 @@
         <v>-122.337941</v>
       </c>
       <c r="D119" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E119" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3473,10 +3854,13 @@
         <v>-122.32380759999999</v>
       </c>
       <c r="D120" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E120" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3487,10 +3871,13 @@
         <v>-122.0348568</v>
       </c>
       <c r="D121" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E121" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3501,10 +3888,13 @@
         <v>-122.16771249999999</v>
       </c>
       <c r="D122" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E122" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3515,10 +3905,13 @@
         <v>-122.16877340000001</v>
       </c>
       <c r="D123" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E123" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3529,10 +3922,13 @@
         <v>-122.1839229</v>
       </c>
       <c r="D124" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="E124" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3543,10 +3939,13 @@
         <v>-121.9824677</v>
       </c>
       <c r="D125" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="E125" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3557,10 +3956,13 @@
         <v>-122.3678468</v>
       </c>
       <c r="D126" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="E126" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3571,10 +3973,13 @@
         <v>-122.3782963</v>
       </c>
       <c r="D127" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="E127" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3585,10 +3990,13 @@
         <v>-122.3663801</v>
       </c>
       <c r="D128" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E128" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3599,10 +4007,13 @@
         <v>-122.1400526</v>
       </c>
       <c r="D129" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="E129" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3613,10 +4024,13 @@
         <v>-122.1400526</v>
       </c>
       <c r="D130" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="E130" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3627,10 +4041,13 @@
         <v>-122.1484694</v>
       </c>
       <c r="D131" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="E131" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3641,10 +4058,13 @@
         <v>-122.32706659999999</v>
       </c>
       <c r="D132" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="E132" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3655,10 +4075,13 @@
         <v>-122.29303760000001</v>
       </c>
       <c r="D133" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="E133" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3669,10 +4092,13 @@
         <v>-122.3247599</v>
       </c>
       <c r="D134" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E134" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3683,10 +4109,13 @@
         <v>-122.182149</v>
       </c>
       <c r="D135" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E135" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3697,10 +4126,13 @@
         <v>-122.182149</v>
       </c>
       <c r="D136" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E136" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3711,10 +4143,13 @@
         <v>-122.1836527</v>
       </c>
       <c r="D137" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E137" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3725,10 +4160,13 @@
         <v>-122.3892307</v>
       </c>
       <c r="D138" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="E138" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3739,10 +4177,13 @@
         <v>-122.29211170000001</v>
       </c>
       <c r="D139" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="E139" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3753,10 +4194,13 @@
         <v>-122.2778793</v>
       </c>
       <c r="D140" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E140" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3767,10 +4211,13 @@
         <v>-122.120278</v>
       </c>
       <c r="D141" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E141" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3781,10 +4228,13 @@
         <v>-122.0946361</v>
       </c>
       <c r="D142" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E142" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3795,10 +4245,13 @@
         <v>-122.1144864</v>
       </c>
       <c r="D143" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="E143" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3809,10 +4262,13 @@
         <v>-122.120226</v>
       </c>
       <c r="D144" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="E144" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3823,10 +4279,13 @@
         <v>-122.15278790000001</v>
       </c>
       <c r="D145" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="E145" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3837,10 +4296,13 @@
         <v>-122.1388975</v>
       </c>
       <c r="D146" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="E146" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3851,10 +4313,13 @@
         <v>-122.15287910000001</v>
       </c>
       <c r="D147" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E147" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3865,10 +4330,13 @@
         <v>-122.32792600000001</v>
       </c>
       <c r="D148" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E148" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3879,10 +4347,13 @@
         <v>-122.3411392</v>
       </c>
       <c r="D149" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E149" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3893,10 +4364,13 @@
         <v>-122.292936</v>
       </c>
       <c r="D150" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="E150" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3907,10 +4381,13 @@
         <v>-122.3120601</v>
       </c>
       <c r="D151" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="E151" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3921,10 +4398,13 @@
         <v>-122.3153293</v>
       </c>
       <c r="D152" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="E152" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3935,10 +4415,13 @@
         <v>-122.2907491</v>
       </c>
       <c r="D153" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="E153" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3949,10 +4432,13 @@
         <v>-122.30267430000001</v>
       </c>
       <c r="D154" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="E154" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3963,10 +4449,13 @@
         <v>-122.1985775</v>
       </c>
       <c r="D155" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="E155" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3977,10 +4466,13 @@
         <v>-122.211298</v>
       </c>
       <c r="D156" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="E156" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3991,10 +4483,13 @@
         <v>-122.2110315</v>
       </c>
       <c r="D157" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="E157" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4005,10 +4500,13 @@
         <v>-122.2109354</v>
       </c>
       <c r="D158" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="E158" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4019,10 +4517,13 @@
         <v>-122.2116407</v>
       </c>
       <c r="D159" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="E159" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4033,10 +4534,13 @@
         <v>-122.2334575</v>
       </c>
       <c r="D160" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="E160" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4047,10 +4551,13 @@
         <v>-122.2358055</v>
       </c>
       <c r="D161" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="E161" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4061,10 +4568,13 @@
         <v>-122.1736578</v>
       </c>
       <c r="D162" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="E162" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4075,10 +4585,13 @@
         <v>-122.1735556</v>
       </c>
       <c r="D163" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="E163" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4089,10 +4602,13 @@
         <v>-122.1801085</v>
       </c>
       <c r="D164" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="E164" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4103,10 +4619,13 @@
         <v>-122.176306</v>
       </c>
       <c r="D165" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="E165" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4117,10 +4636,13 @@
         <v>-122.1586131</v>
       </c>
       <c r="D166" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E166" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4131,10 +4653,13 @@
         <v>-122.1624626</v>
       </c>
       <c r="D167" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="E167" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4145,10 +4670,13 @@
         <v>-122.1654941</v>
       </c>
       <c r="D168" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="E168" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4159,10 +4687,13 @@
         <v>-122.28748</v>
       </c>
       <c r="D169" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="E169" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4173,10 +4704,13 @@
         <v>-122.2936335</v>
       </c>
       <c r="D170" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="E170" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4187,10 +4721,13 @@
         <v>-122.02563360000001</v>
       </c>
       <c r="D171" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="E171" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4201,10 +4738,13 @@
         <v>-122.0274847</v>
       </c>
       <c r="D172" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="E172" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4215,10 +4755,13 @@
         <v>-122.03153260000001</v>
       </c>
       <c r="D173" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E173" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4229,10 +4772,13 @@
         <v>-122.03535530000001</v>
       </c>
       <c r="D174" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="E174" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4243,10 +4789,13 @@
         <v>-122.0793377</v>
       </c>
       <c r="D175" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="E175" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4257,10 +4806,13 @@
         <v>-122.08698990000001</v>
       </c>
       <c r="D176" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="E176" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4271,10 +4823,13 @@
         <v>-122.0039617</v>
       </c>
       <c r="D177" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="E177" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4285,10 +4840,13 @@
         <v>-122.0058305</v>
       </c>
       <c r="D178" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="E178" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4299,10 +4857,13 @@
         <v>-122.3907689</v>
       </c>
       <c r="D179" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="E179" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4313,10 +4874,13 @@
         <v>-122.3844869</v>
       </c>
       <c r="D180" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="E180" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4327,10 +4891,13 @@
         <v>-122.3967054</v>
       </c>
       <c r="D181" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="E181" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4341,10 +4908,13 @@
         <v>-122.39632570000001</v>
       </c>
       <c r="D182" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="E182" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4355,10 +4925,13 @@
         <v>-122.38045320000001</v>
       </c>
       <c r="D183" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="E183" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4369,10 +4942,13 @@
         <v>-122.38985</v>
       </c>
       <c r="D184" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="E184" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4383,10 +4959,13 @@
         <v>-122.2820224</v>
       </c>
       <c r="D185" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="E185" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4397,10 +4976,13 @@
         <v>-122.27696400000001</v>
       </c>
       <c r="D186" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="E186" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4411,10 +4993,13 @@
         <v>-122.26837639999999</v>
       </c>
       <c r="D187" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="E187" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4425,10 +5010,13 @@
         <v>-122.2961718</v>
       </c>
       <c r="D188" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="E188" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4439,10 +5027,13 @@
         <v>-122.2928125</v>
       </c>
       <c r="D189" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="E189" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4453,10 +5044,13 @@
         <v>-122.14728359999999</v>
       </c>
       <c r="D190" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="E190" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4467,10 +5061,13 @@
         <v>-122.1217894</v>
       </c>
       <c r="D191" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="E191" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4481,10 +5078,13 @@
         <v>-122.3275134</v>
       </c>
       <c r="D192" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="E192" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4495,10 +5095,13 @@
         <v>-122.30332300000001</v>
       </c>
       <c r="D193" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="E193" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4509,10 +5112,13 @@
         <v>-122.2173701</v>
       </c>
       <c r="D194" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="E194" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4523,10 +5129,13 @@
         <v>-122.18115969999999</v>
       </c>
       <c r="D195" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="E195" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4537,10 +5146,13 @@
         <v>-122.2141814</v>
       </c>
       <c r="D196" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="E196" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4551,10 +5163,13 @@
         <v>-122.18429380000001</v>
       </c>
       <c r="D197" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E197" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4565,10 +5180,13 @@
         <v>-122.1965074</v>
       </c>
       <c r="D198" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="E198" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4579,10 +5197,13 @@
         <v>-122.374133</v>
       </c>
       <c r="D199" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="E199" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4593,10 +5214,13 @@
         <v>-122.3891261</v>
       </c>
       <c r="D200" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="E200" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4607,10 +5231,13 @@
         <v>-122.374133</v>
       </c>
       <c r="D201" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="E201" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4621,10 +5248,13 @@
         <v>-122.374582</v>
       </c>
       <c r="D202" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E202" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4635,10 +5265,13 @@
         <v>-122.4001291</v>
       </c>
       <c r="D203" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E203" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4649,10 +5282,13 @@
         <v>-122.3903984</v>
       </c>
       <c r="D204" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="E204" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4663,10 +5299,13 @@
         <v>-122.35406</v>
       </c>
       <c r="D205" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="E205" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4677,10 +5316,13 @@
         <v>-122.3563999</v>
       </c>
       <c r="D206" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="E206" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4691,10 +5333,13 @@
         <v>-122.2822003</v>
       </c>
       <c r="D207" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="E207" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -4705,10 +5350,13 @@
         <v>-122.2991007</v>
       </c>
       <c r="D208" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E208" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4719,10 +5367,13 @@
         <v>-122.28226309999999</v>
       </c>
       <c r="D209" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="E209" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -4733,10 +5384,13 @@
         <v>-121.71464690000001</v>
       </c>
       <c r="D210" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="E210" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -4747,10 +5401,13 @@
         <v>-121.71399599999999</v>
       </c>
       <c r="D211" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="E211" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -4761,10 +5418,13 @@
         <v>-122.307625</v>
       </c>
       <c r="D212" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="E212" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -4775,10 +5435,13 @@
         <v>-122.3046676</v>
       </c>
       <c r="D213" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="E213" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4789,10 +5452,13 @@
         <v>-122.080778</v>
       </c>
       <c r="D214" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="E214" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4803,10 +5469,13 @@
         <v>-122.1878512</v>
       </c>
       <c r="D215" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="E215" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4817,10 +5486,13 @@
         <v>-122.12214229999999</v>
       </c>
       <c r="D216" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="E216" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4831,10 +5503,13 @@
         <v>-122.14146359999999</v>
       </c>
       <c r="D217" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E217" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4845,10 +5520,13 @@
         <v>-122.3062329</v>
       </c>
       <c r="D218" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E218" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -4859,10 +5537,13 @@
         <v>-122.12404100000001</v>
       </c>
       <c r="D219" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="E219" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -4873,10 +5554,13 @@
         <v>-122.1236706</v>
       </c>
       <c r="D220" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="E220" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -4887,10 +5571,13 @@
         <v>-122.117638</v>
       </c>
       <c r="D221" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="E221" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -4901,10 +5588,13 @@
         <v>-122.1016403</v>
       </c>
       <c r="D222" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="E222" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -4915,10 +5605,13 @@
         <v>-122.12026</v>
       </c>
       <c r="D223" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="E223" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -4929,10 +5622,13 @@
         <v>-122.12617880000001</v>
       </c>
       <c r="D224" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="E224" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -4943,10 +5639,13 @@
         <v>-122.33468499999999</v>
       </c>
       <c r="D225" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="E225" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -4957,10 +5656,13 @@
         <v>-122.342337</v>
       </c>
       <c r="D226" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="E226" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -4971,10 +5673,13 @@
         <v>-122.3286334</v>
       </c>
       <c r="D227" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="E227" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -4985,10 +5690,13 @@
         <v>-122.314021</v>
       </c>
       <c r="D228" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="E228" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -4999,10 +5707,13 @@
         <v>-122.31896829999999</v>
       </c>
       <c r="D229" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="E229" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5013,10 +5724,13 @@
         <v>-122.29526799999999</v>
       </c>
       <c r="D230" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="E230" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5027,10 +5741,13 @@
         <v>-122.2636961</v>
       </c>
       <c r="D231" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="E231" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5041,10 +5758,13 @@
         <v>-122.253072</v>
       </c>
       <c r="D232" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="E232" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5055,10 +5775,13 @@
         <v>-122.2632531</v>
       </c>
       <c r="D233" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="E233" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5069,10 +5792,13 @@
         <v>-122.2400729</v>
       </c>
       <c r="D234" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E234" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5083,10 +5809,13 @@
         <v>-122.3013215</v>
       </c>
       <c r="D235" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="E235" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5097,10 +5826,13 @@
         <v>-122.3156924</v>
       </c>
       <c r="D236" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="E236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -5111,10 +5843,13 @@
         <v>-122.37273399999999</v>
       </c>
       <c r="D237" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E237" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -5125,10 +5860,13 @@
         <v>-122.23060479999999</v>
       </c>
       <c r="D238" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="E238" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5139,10 +5877,13 @@
         <v>-122.2307081</v>
       </c>
       <c r="D239" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="E239" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5153,10 +5894,13 @@
         <v>-122.23093799999999</v>
       </c>
       <c r="D240" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="E240" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -5167,10 +5911,13 @@
         <v>-122.2093553</v>
       </c>
       <c r="D241" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="E241" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5181,10 +5928,13 @@
         <v>-122.37818470000001</v>
       </c>
       <c r="D242" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="E242" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -5195,10 +5945,13 @@
         <v>-122.2708161</v>
       </c>
       <c r="D243" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="E243" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -5209,10 +5962,13 @@
         <v>-122.3889654</v>
       </c>
       <c r="D244" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="E244" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5223,10 +5979,13 @@
         <v>-122.3927754</v>
       </c>
       <c r="D245" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="E245" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5237,10 +5996,13 @@
         <v>-121.8811654</v>
       </c>
       <c r="D246" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="E246" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5251,10 +6013,13 @@
         <v>-122.0107624</v>
       </c>
       <c r="D247" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="E247" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -5265,10 +6030,13 @@
         <v>-122.2988464</v>
       </c>
       <c r="D248" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="E248" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -5279,10 +6047,13 @@
         <v>-122.2989591</v>
       </c>
       <c r="D249" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="E249" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5293,10 +6064,13 @@
         <v>-122.32537240000001</v>
       </c>
       <c r="D250" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="E250" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5307,10 +6081,13 @@
         <v>-122.2543884</v>
       </c>
       <c r="D251" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="E251" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -5321,10 +6098,13 @@
         <v>-122.2557953</v>
       </c>
       <c r="D252" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="E252" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5335,10 +6115,13 @@
         <v>-122.13764519999999</v>
       </c>
       <c r="D253" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="E253" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5349,10 +6132,13 @@
         <v>-122.15176769999999</v>
       </c>
       <c r="D254" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E254" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -5363,10 +6149,13 @@
         <v>-122.1582994</v>
       </c>
       <c r="D255" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="E255" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -5377,10 +6166,13 @@
         <v>-122.1782256</v>
       </c>
       <c r="D256" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="E256" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -5391,10 +6183,13 @@
         <v>-122.18337</v>
       </c>
       <c r="D257" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="E257" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -5405,10 +6200,13 @@
         <v>-122.180156</v>
       </c>
       <c r="D258" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="E258" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -5419,10 +6217,13 @@
         <v>-122.17135469999999</v>
       </c>
       <c r="D259" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="E259" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -5433,10 +6234,13 @@
         <v>-122.1846</v>
       </c>
       <c r="D260" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="E260" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -5447,10 +6251,13 @@
         <v>-122.0429405</v>
       </c>
       <c r="D261" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="E261" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -5461,10 +6268,13 @@
         <v>-122.2818676</v>
       </c>
       <c r="D262" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="E262" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -5475,10 +6285,13 @@
         <v>-122.1722352</v>
       </c>
       <c r="D263" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E263" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -5489,10 +6302,13 @@
         <v>-121.9965006</v>
       </c>
       <c r="D264" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="E264" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -5503,10 +6319,13 @@
         <v>-121.9952316</v>
       </c>
       <c r="D265" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="E265" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -5517,10 +6336,13 @@
         <v>-121.99394650000001</v>
       </c>
       <c r="D266" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E266" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -5531,10 +6353,13 @@
         <v>-121.99462250000001</v>
       </c>
       <c r="D267" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E267" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -5545,10 +6370,13 @@
         <v>-122.1177094</v>
       </c>
       <c r="D268" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E268" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -5559,10 +6387,13 @@
         <v>-122.11503860000001</v>
       </c>
       <c r="D269" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="E269" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -5573,10 +6404,13 @@
         <v>-122.114097</v>
       </c>
       <c r="D270" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="E270" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -5587,10 +6421,13 @@
         <v>-122.3319862</v>
       </c>
       <c r="D271" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E271" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -5601,10 +6438,13 @@
         <v>-122.32510809999999</v>
       </c>
       <c r="D272" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="E272" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -5615,10 +6455,13 @@
         <v>-122.3407244</v>
       </c>
       <c r="D273" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E273" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -5629,10 +6472,13 @@
         <v>-122.3424947</v>
       </c>
       <c r="D274" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="E274" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -5643,10 +6489,13 @@
         <v>-122.1987395</v>
       </c>
       <c r="D275" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="E275" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -5657,10 +6506,13 @@
         <v>-122.1955794</v>
       </c>
       <c r="D276" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="E276" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -5671,10 +6523,13 @@
         <v>-122.1835416</v>
       </c>
       <c r="D277" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="E277" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -5685,10 +6540,13 @@
         <v>-122.0350062</v>
       </c>
       <c r="D278" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E278" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -5699,10 +6557,13 @@
         <v>-122.10177299999999</v>
       </c>
       <c r="D279" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="E279" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -5713,10 +6574,13 @@
         <v>-122.117468</v>
       </c>
       <c r="D280" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="E280" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -5727,10 +6591,13 @@
         <v>-122.350506</v>
       </c>
       <c r="D281" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="E281" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -5741,10 +6608,13 @@
         <v>-122.3364876</v>
       </c>
       <c r="D282" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="E282" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -5755,10 +6625,13 @@
         <v>-122.336517</v>
       </c>
       <c r="D283" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="E283" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -5769,10 +6642,13 @@
         <v>-122.31699</v>
       </c>
       <c r="D284" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="E284" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -5783,10 +6659,13 @@
         <v>-122.3359619</v>
       </c>
       <c r="D285" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="E285" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -5797,10 +6676,13 @@
         <v>-122.33032710000001</v>
       </c>
       <c r="D286" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="E286" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -5811,10 +6693,13 @@
         <v>-122.3540059</v>
       </c>
       <c r="D287" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="E287" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -5825,10 +6710,13 @@
         <v>-122.3390223</v>
       </c>
       <c r="D288" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="E288" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -5839,10 +6727,13 @@
         <v>-122.3542277</v>
       </c>
       <c r="D289" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E289" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -5853,10 +6744,13 @@
         <v>-122.3039394</v>
       </c>
       <c r="D290" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="E290" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -5867,10 +6761,13 @@
         <v>-122.31556879999999</v>
       </c>
       <c r="D291" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="E291" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -5881,10 +6778,13 @@
         <v>-122.2918926</v>
       </c>
       <c r="D292" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="E292" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -5895,10 +6795,13 @@
         <v>-122.29926399999999</v>
       </c>
       <c r="D293" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="E293" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -5909,10 +6812,13 @@
         <v>-122.0116405</v>
       </c>
       <c r="D294" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="E294" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -5923,10 +6829,13 @@
         <v>-122.0074331</v>
       </c>
       <c r="D295" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="E295" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -5937,10 +6846,13 @@
         <v>-122.0081306</v>
       </c>
       <c r="D296" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="E296" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -5951,10 +6863,13 @@
         <v>-122.3658077</v>
       </c>
       <c r="D297" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="E297" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -5965,10 +6880,13 @@
         <v>-122.3588132</v>
       </c>
       <c r="D298" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="E298" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -5979,10 +6897,13 @@
         <v>-122.3657493</v>
       </c>
       <c r="D299" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="E299" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -5993,10 +6914,13 @@
         <v>-122.19124530000001</v>
       </c>
       <c r="D300" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="E300" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -6007,10 +6931,13 @@
         <v>-122.1194661</v>
       </c>
       <c r="D301" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="E301" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -6021,10 +6948,13 @@
         <v>-122.1957518</v>
       </c>
       <c r="D302" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="E302" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -6035,10 +6965,13 @@
         <v>-122.2001338</v>
       </c>
       <c r="D303" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="E303" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -6049,10 +6982,13 @@
         <v>-122.19438839999999</v>
       </c>
       <c r="D304" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="E304" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -6063,10 +6999,13 @@
         <v>-122.40168199999999</v>
       </c>
       <c r="D305" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E305" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -6077,10 +7016,13 @@
         <v>-122.40254400000001</v>
       </c>
       <c r="D306" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="E306" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -6091,10 +7033,13 @@
         <v>-122.1981208</v>
       </c>
       <c r="D307" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="E307" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -6105,10 +7050,13 @@
         <v>-122.21109800000001</v>
       </c>
       <c r="D308" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="E308" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -6119,10 +7067,13 @@
         <v>-122.2225675</v>
       </c>
       <c r="D309" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="E309" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -6133,10 +7084,13 @@
         <v>-122.2200019</v>
       </c>
       <c r="D310" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="E310" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -6147,10 +7101,13 @@
         <v>-122.30299650000001</v>
       </c>
       <c r="D311" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="E311" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -6161,10 +7118,13 @@
         <v>-122.3031627</v>
       </c>
       <c r="D312" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="E312" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -6175,10 +7135,13 @@
         <v>-122.30316620000001</v>
       </c>
       <c r="D313" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="E313" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -6189,10 +7152,13 @@
         <v>-122.29764280000001</v>
       </c>
       <c r="D314" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="E314" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -6203,10 +7169,13 @@
         <v>-122.2902157</v>
       </c>
       <c r="D315" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="E315" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -6217,10 +7186,13 @@
         <v>-122.3355518</v>
       </c>
       <c r="D316" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="E316" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -6231,10 +7203,13 @@
         <v>-122.3356776</v>
       </c>
       <c r="D317" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="E317" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -6245,10 +7220,13 @@
         <v>-122.33636319999999</v>
       </c>
       <c r="D318" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="E318" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -6259,10 +7237,13 @@
         <v>-122.01393419999999</v>
       </c>
       <c r="D319" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="E319" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -6273,10 +7254,13 @@
         <v>-122.16353429999999</v>
       </c>
       <c r="D320" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="E320" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -6287,10 +7271,13 @@
         <v>-122.174741</v>
       </c>
       <c r="D321" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="E321" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -6301,10 +7288,13 @@
         <v>-122.4078267</v>
       </c>
       <c r="D322" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="E322" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -6315,10 +7305,13 @@
         <v>-122.29309960000001</v>
       </c>
       <c r="D323" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="E323" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -6329,10 +7322,13 @@
         <v>-122.21810259999999</v>
       </c>
       <c r="D324" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="E324" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -6343,10 +7339,13 @@
         <v>-122.0331577</v>
       </c>
       <c r="D325" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="E325" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -6357,10 +7356,13 @@
         <v>-122.0339616</v>
       </c>
       <c r="D326" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="E326" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -6371,10 +7373,13 @@
         <v>-122.02809980000001</v>
       </c>
       <c r="D327" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="E327" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -6385,10 +7390,13 @@
         <v>-122.2070913</v>
       </c>
       <c r="D328" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="E328" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -6399,10 +7407,13 @@
         <v>-122.22188149999999</v>
       </c>
       <c r="D329" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="E329" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -6413,10 +7424,13 @@
         <v>-122.2114017</v>
       </c>
       <c r="D330" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="E330" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -6427,10 +7441,13 @@
         <v>-122.22991089999999</v>
       </c>
       <c r="D331" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="E331" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -6441,10 +7458,13 @@
         <v>-122.237621</v>
       </c>
       <c r="D332" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="E332" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -6455,10 +7475,13 @@
         <v>-122.3692234</v>
       </c>
       <c r="D333" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="E333" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -6469,10 +7492,13 @@
         <v>-122.37090790000001</v>
       </c>
       <c r="D334" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="E334" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -6483,10 +7509,13 @@
         <v>-122.20477169999999</v>
       </c>
       <c r="D335" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E335" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -6497,10 +7526,13 @@
         <v>-121.905254</v>
       </c>
       <c r="D336" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="E336" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -6511,10 +7543,13 @@
         <v>-121.8961473</v>
       </c>
       <c r="D337" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="E337" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -6525,10 +7560,13 @@
         <v>-122.3380969</v>
       </c>
       <c r="D338" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="E338" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -6539,10 +7577,13 @@
         <v>-122.21577670000001</v>
       </c>
       <c r="D339" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="E339" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -6553,10 +7594,13 @@
         <v>-122.2163309</v>
       </c>
       <c r="D340" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="E340" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -6567,10 +7611,13 @@
         <v>-122.21567520000001</v>
       </c>
       <c r="D341" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="E341" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -6581,10 +7628,13 @@
         <v>-122.2284532</v>
       </c>
       <c r="D342" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="E342" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -6595,10 +7645,13 @@
         <v>-122.0670569</v>
       </c>
       <c r="D343" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="E343" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -6609,10 +7662,13 @@
         <v>-122.2169888</v>
       </c>
       <c r="D344" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="E344" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -6623,10 +7679,13 @@
         <v>-122.2197884</v>
       </c>
       <c r="D345" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="E345" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -6637,10 +7696,13 @@
         <v>-122.215397</v>
       </c>
       <c r="D346" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="E346" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -6651,10 +7713,13 @@
         <v>-122.1143199</v>
       </c>
       <c r="D347" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="E347" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -6665,10 +7730,13 @@
         <v>-122.11423499999999</v>
       </c>
       <c r="D348" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="E348" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -6679,10 +7747,13 @@
         <v>-122.28888910000001</v>
       </c>
       <c r="D349" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="E349" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -6693,10 +7764,13 @@
         <v>-122.28488900000001</v>
       </c>
       <c r="D350" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="E350" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -6707,10 +7781,13 @@
         <v>-122.1641731</v>
       </c>
       <c r="D351" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="E351" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -6721,10 +7798,13 @@
         <v>-122.1833104</v>
       </c>
       <c r="D352" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="E352" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -6735,10 +7815,13 @@
         <v>-122.2944837</v>
       </c>
       <c r="D353" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="E353" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -6749,10 +7832,13 @@
         <v>-122.0415278</v>
       </c>
       <c r="D354" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="E354" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -6763,10 +7849,13 @@
         <v>-122.10020830000001</v>
       </c>
       <c r="D355" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="E355" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -6777,10 +7866,13 @@
         <v>-122.10176850000001</v>
       </c>
       <c r="D356" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="E356" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -6791,10 +7883,13 @@
         <v>-122.10022910000001</v>
       </c>
       <c r="D357" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="E357" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -6805,10 +7900,13 @@
         <v>-122.1799848</v>
       </c>
       <c r="D358" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="E358" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -6819,10 +7917,13 @@
         <v>-122.1936077</v>
       </c>
       <c r="D359" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="E359" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -6833,10 +7934,13 @@
         <v>-122.2081824</v>
       </c>
       <c r="D360" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="E360" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -6847,10 +7951,13 @@
         <v>-122.1391508</v>
       </c>
       <c r="D361" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="E361" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -6861,10 +7968,13 @@
         <v>-122.1495455</v>
       </c>
       <c r="D362" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="E362" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -6875,10 +7985,13 @@
         <v>-122.2808222</v>
       </c>
       <c r="D363" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="E363" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -6889,10 +8002,13 @@
         <v>-122.2775424</v>
       </c>
       <c r="D364" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="E364" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -6903,10 +8019,13 @@
         <v>-122.27514859999999</v>
       </c>
       <c r="D365" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="E365" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -6917,10 +8036,13 @@
         <v>-122.27808690000001</v>
       </c>
       <c r="D366" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E366" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -6931,10 +8053,13 @@
         <v>-122.2822826</v>
       </c>
       <c r="D367" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="E367" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -6945,10 +8070,13 @@
         <v>-122.3122506</v>
       </c>
       <c r="D368" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="E368" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -6959,10 +8087,13 @@
         <v>-122.30211850000001</v>
       </c>
       <c r="D369" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="E369" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -6973,10 +8104,13 @@
         <v>-122.3871534</v>
       </c>
       <c r="D370" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E370" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -6987,10 +8121,13 @@
         <v>-122.0378709</v>
       </c>
       <c r="D371" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="E371" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -7001,10 +8138,13 @@
         <v>-122.0372509</v>
       </c>
       <c r="D372" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="E372" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -7015,10 +8155,13 @@
         <v>-121.8166822</v>
       </c>
       <c r="D373" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="E373" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -7029,10 +8172,13 @@
         <v>-122.3374922</v>
       </c>
       <c r="D374" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="E374" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -7043,10 +8189,13 @@
         <v>-122.1597448</v>
       </c>
       <c r="D375" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="E375" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -7057,10 +8206,13 @@
         <v>-122.15947439999999</v>
       </c>
       <c r="D376" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="E376" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -7071,10 +8223,13 @@
         <v>-122.160341</v>
       </c>
       <c r="D377" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="E377" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -7085,10 +8240,13 @@
         <v>-122.2487541</v>
       </c>
       <c r="D378" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="E378" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -7099,10 +8257,13 @@
         <v>-122.36782719999999</v>
       </c>
       <c r="D379" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="E379" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -7113,10 +8274,13 @@
         <v>-122.3457702</v>
       </c>
       <c r="D380" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="E380" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -7127,10 +8291,13 @@
         <v>-122.3454114</v>
       </c>
       <c r="D381" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="E381" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -7141,10 +8308,13 @@
         <v>-122.1720457</v>
       </c>
       <c r="D382" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="E382" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -7155,10 +8325,13 @@
         <v>-122.26306769999999</v>
       </c>
       <c r="D383" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="E383" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -7169,10 +8342,13 @@
         <v>-122.2308991</v>
       </c>
       <c r="D384" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="E384" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -7183,10 +8359,13 @@
         <v>-122.2235118</v>
       </c>
       <c r="D385" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E385" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -7197,10 +8376,13 @@
         <v>-122.161063</v>
       </c>
       <c r="D386" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="E386" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -7211,10 +8393,13 @@
         <v>-122.359616</v>
       </c>
       <c r="D387" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="E387" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -7225,10 +8410,13 @@
         <v>-122.359616</v>
       </c>
       <c r="D388" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="E388" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -7239,10 +8427,13 @@
         <v>-122.2317132</v>
       </c>
       <c r="D389" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="E389" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -7253,10 +8444,13 @@
         <v>-122.2293337</v>
       </c>
       <c r="D390" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="E390" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -7267,10 +8461,13 @@
         <v>-122.2315645</v>
       </c>
       <c r="D391" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="E391" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -7281,10 +8478,13 @@
         <v>-122.23709650000001</v>
       </c>
       <c r="D392" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="E392" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -7295,10 +8495,13 @@
         <v>-122.23245230000001</v>
       </c>
       <c r="D393" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="E393" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -7309,10 +8512,13 @@
         <v>-122.32059820000001</v>
       </c>
       <c r="D394" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="E394" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -7323,10 +8529,13 @@
         <v>-122.1695478</v>
       </c>
       <c r="D395" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E395" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -7337,10 +8546,13 @@
         <v>-122.18090599999999</v>
       </c>
       <c r="D396" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="E396" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -7351,10 +8563,13 @@
         <v>-122.195617</v>
       </c>
       <c r="D397" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="E397" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -7365,10 +8580,13 @@
         <v>-122.3540856</v>
       </c>
       <c r="D398" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="E398" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -7379,10 +8597,13 @@
         <v>-122.35500949999999</v>
       </c>
       <c r="D399" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="E399" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -7393,10 +8614,13 @@
         <v>-122.35657500000001</v>
       </c>
       <c r="D400" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="E400" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -7407,10 +8631,13 @@
         <v>-122.34127030000001</v>
       </c>
       <c r="D401" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="E401" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -7421,10 +8648,13 @@
         <v>-121.9731948</v>
       </c>
       <c r="D402" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="E402" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -7435,10 +8665,13 @@
         <v>-122.101725</v>
       </c>
       <c r="D403" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="E403" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -7449,10 +8682,13 @@
         <v>-122.36279</v>
       </c>
       <c r="D404" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="E404" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -7463,10 +8699,13 @@
         <v>-122.3645801</v>
       </c>
       <c r="D405" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="E405" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -7477,10 +8716,13 @@
         <v>-122.25165149999999</v>
       </c>
       <c r="D406" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="E406" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -7491,10 +8733,13 @@
         <v>-122.28351960000001</v>
       </c>
       <c r="D407" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="E407" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -7505,10 +8750,13 @@
         <v>-122.0232364</v>
       </c>
       <c r="D408" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="E408" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -7519,10 +8767,13 @@
         <v>-122.0175993</v>
       </c>
       <c r="D409" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="E409" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -7533,10 +8784,13 @@
         <v>-122.02509360000001</v>
       </c>
       <c r="D410" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="E410" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -7547,10 +8801,13 @@
         <v>-121.779235</v>
       </c>
       <c r="D411" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="E411" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -7561,10 +8818,13 @@
         <v>-121.766986</v>
       </c>
       <c r="D412" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="E412" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -7575,10 +8835,13 @@
         <v>-122.3874364</v>
       </c>
       <c r="D413" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="E413" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -7589,10 +8852,13 @@
         <v>-122.2083415</v>
       </c>
       <c r="D414" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="E414" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -7603,10 +8869,13 @@
         <v>-122.033433</v>
       </c>
       <c r="D415" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="E415" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -7617,10 +8886,13 @@
         <v>-122.0469265</v>
       </c>
       <c r="D416" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E416" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -7631,10 +8903,13 @@
         <v>-122.16384119999999</v>
       </c>
       <c r="D417" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="E417" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -7645,10 +8920,13 @@
         <v>-122.07932270000001</v>
       </c>
       <c r="D418" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="E418" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -7659,10 +8937,13 @@
         <v>-122.12129280000001</v>
       </c>
       <c r="D419" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="E419" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -7673,10 +8954,13 @@
         <v>-122.12150699999999</v>
       </c>
       <c r="D420" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="E420" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -7687,10 +8971,13 @@
         <v>-121.9138274</v>
       </c>
       <c r="D421" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="E421" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -7701,10 +8988,13 @@
         <v>-121.9112902</v>
       </c>
       <c r="D422" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="E422" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -7715,10 +9005,13 @@
         <v>-122.0634946</v>
       </c>
       <c r="D423" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="E423" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -7729,10 +9022,13 @@
         <v>-122.3804104</v>
       </c>
       <c r="D424" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="E424" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -7743,10 +9039,13 @@
         <v>-122.21196999999999</v>
       </c>
       <c r="D425" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="E425" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -7757,10 +9056,13 @@
         <v>-122.21295619999999</v>
       </c>
       <c r="D426" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="E426" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -7771,10 +9073,13 @@
         <v>-121.90055049999999</v>
       </c>
       <c r="D427" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="E427" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -7785,10 +9090,13 @@
         <v>-122.2008299</v>
       </c>
       <c r="D428" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="E428" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -7799,10 +9107,13 @@
         <v>-122.28563200000001</v>
       </c>
       <c r="D429" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="E429" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -7813,10 +9124,13 @@
         <v>-122.10869</v>
       </c>
       <c r="D430" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="E430" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -7827,10 +9141,13 @@
         <v>-122.16743750000001</v>
       </c>
       <c r="D431" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="E431" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -7841,10 +9158,13 @@
         <v>-122.28482</v>
       </c>
       <c r="D432" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="E432" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -7855,10 +9175,13 @@
         <v>-122.19870299999999</v>
       </c>
       <c r="D433" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="E433" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -7869,10 +9192,13 @@
         <v>-121.813939</v>
       </c>
       <c r="D434" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="E434" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -7883,10 +9209,13 @@
         <v>-122.40249300000001</v>
       </c>
       <c r="D435" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="E435" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -7897,10 +9226,13 @@
         <v>-122.1222312</v>
       </c>
       <c r="D436" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="E436" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -7911,10 +9243,13 @@
         <v>-122.00520640000001</v>
       </c>
       <c r="D437" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="E437" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -7925,10 +9260,13 @@
         <v>-121.98826099999999</v>
       </c>
       <c r="D438" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="E438" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -7939,10 +9277,13 @@
         <v>-122.1164596</v>
       </c>
       <c r="D439" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="E439" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -7953,10 +9294,13 @@
         <v>-122.28791699999999</v>
       </c>
       <c r="D440" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="E440" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -7967,10 +9311,13 @@
         <v>-122.2838825</v>
       </c>
       <c r="D441" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="E441" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -7981,10 +9328,13 @@
         <v>-122.3145</v>
       </c>
       <c r="D442" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="E442" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -7995,10 +9345,13 @@
         <v>-122.29380190000001</v>
       </c>
       <c r="D443" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="E443" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -8009,10 +9362,13 @@
         <v>-122.29405420000001</v>
       </c>
       <c r="D444" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="E444" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -8023,10 +9379,13 @@
         <v>-122.3457566</v>
       </c>
       <c r="D445" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="E445" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -8037,10 +9396,13 @@
         <v>-122.3172122</v>
       </c>
       <c r="D446" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="E446" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -8051,10 +9413,13 @@
         <v>-122.274738</v>
       </c>
       <c r="D447" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="E447" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -8065,10 +9430,13 @@
         <v>-122.28888910000001</v>
       </c>
       <c r="D448" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="E448" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -8079,10 +9447,13 @@
         <v>-122.3005651</v>
       </c>
       <c r="D449" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="E449" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -8093,10 +9464,13 @@
         <v>-122.28605469999999</v>
       </c>
       <c r="D450" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="E450" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -8107,10 +9481,13 @@
         <v>-122.0006611</v>
       </c>
       <c r="D451" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="E451" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -8121,10 +9498,13 @@
         <v>-122.1901757</v>
       </c>
       <c r="D452" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="E452" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -8135,10 +9515,13 @@
         <v>-122.1995544</v>
       </c>
       <c r="D453" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="E453" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -8149,10 +9532,13 @@
         <v>-122.1906784</v>
       </c>
       <c r="D454" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="E454" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -8163,10 +9549,13 @@
         <v>-122.197549</v>
       </c>
       <c r="D455" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="E455" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -8177,10 +9566,13 @@
         <v>-122.2798545</v>
       </c>
       <c r="D456" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E456" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -8191,10 +9583,13 @@
         <v>-122.2766388</v>
       </c>
       <c r="D457" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="E457" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -8205,10 +9600,13 @@
         <v>-122.2749527</v>
       </c>
       <c r="D458" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="E458" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -8219,10 +9617,13 @@
         <v>-122.0958739</v>
       </c>
       <c r="D459" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="E459" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -8233,10 +9634,13 @@
         <v>-122.1961237</v>
       </c>
       <c r="D460" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="E460" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -8247,10 +9651,13 @@
         <v>-122.05728449999999</v>
       </c>
       <c r="D461" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="E461" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -8261,10 +9668,13 @@
         <v>-122.12277779999999</v>
       </c>
       <c r="D462" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="E462" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -8275,10 +9685,13 @@
         <v>-121.9874956</v>
       </c>
       <c r="D463" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="E463" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -8289,10 +9702,13 @@
         <v>-122.2224105</v>
       </c>
       <c r="D464" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="E464" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -8303,10 +9719,13 @@
         <v>-122.22747</v>
       </c>
       <c r="D465" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="E465" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -8317,10 +9736,13 @@
         <v>-122.2003728</v>
       </c>
       <c r="D466" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="E466" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -8331,10 +9753,13 @@
         <v>-122.0510846</v>
       </c>
       <c r="D467" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="E467" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -8345,10 +9770,13 @@
         <v>-122.0516408</v>
       </c>
       <c r="D468" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="E468" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -8359,10 +9787,13 @@
         <v>-121.9096768</v>
       </c>
       <c r="D469" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="E469" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -8373,10 +9804,13 @@
         <v>-122.0396884</v>
       </c>
       <c r="D470" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="E470" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -8387,10 +9821,13 @@
         <v>-122.0600598</v>
       </c>
       <c r="D471" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="E471" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -8401,10 +9838,13 @@
         <v>-122.0610532</v>
       </c>
       <c r="D472" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="E472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -8415,10 +9855,13 @@
         <v>-122.35043330000001</v>
       </c>
       <c r="D473" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="E473" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -8429,10 +9872,13 @@
         <v>-122.0286734</v>
       </c>
       <c r="D474" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="E474" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -8443,10 +9889,13 @@
         <v>-122.0287266</v>
       </c>
       <c r="D475" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E475" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -8457,10 +9906,13 @@
         <v>-122.0351122</v>
       </c>
       <c r="D476" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="E476" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -8471,10 +9923,13 @@
         <v>-122.0343522</v>
       </c>
       <c r="D477" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="E477" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -8485,10 +9940,13 @@
         <v>-122.11666099999999</v>
       </c>
       <c r="D478" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="E478" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -8499,10 +9957,13 @@
         <v>-122.1202037</v>
       </c>
       <c r="D479" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="E479" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -8513,10 +9974,13 @@
         <v>-122.11388030000001</v>
       </c>
       <c r="D480" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="E480" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -8527,10 +9991,13 @@
         <v>-122.2589973</v>
       </c>
       <c r="D481" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="E481" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -8541,10 +10008,13 @@
         <v>-122.288405</v>
       </c>
       <c r="D482" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="E482" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -8555,10 +10025,13 @@
         <v>-122.1585486</v>
       </c>
       <c r="D483" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="E483" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -8569,10 +10042,13 @@
         <v>-122.2776288</v>
       </c>
       <c r="D484" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="E484" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -8583,10 +10059,13 @@
         <v>-122.06628790000001</v>
       </c>
       <c r="D485" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="E485" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -8597,10 +10076,13 @@
         <v>-121.95138609999999</v>
       </c>
       <c r="D486" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="E486" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -8611,10 +10093,13 @@
         <v>-122.0279834</v>
       </c>
       <c r="D487" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="E487" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -8625,10 +10110,13 @@
         <v>-122.3080611</v>
       </c>
       <c r="D488" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="E488" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -8639,10 +10127,13 @@
         <v>-122.06088389999999</v>
       </c>
       <c r="D489" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="E489" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -8653,10 +10144,13 @@
         <v>-121.3623523</v>
       </c>
       <c r="D490" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="E490" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -8667,10 +10161,13 @@
         <v>-121.9972729</v>
       </c>
       <c r="D491" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="E491" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -8681,10 +10178,13 @@
         <v>-121.8101192</v>
       </c>
       <c r="D492" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="E492" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -8695,10 +10195,13 @@
         <v>-122.05791170000001</v>
       </c>
       <c r="D493" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="E493" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -8709,10 +10212,13 @@
         <v>-122.45459219999999</v>
       </c>
       <c r="D494" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="E494" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -8723,10 +10229,13 @@
         <v>-122.4525731</v>
       </c>
       <c r="D495" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="E495" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -8737,10 +10246,13 @@
         <v>-122.1612983</v>
       </c>
       <c r="D496" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="E496" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -8751,10 +10263,13 @@
         <v>-122.4573685</v>
       </c>
       <c r="D497" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="E497" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -8765,10 +10280,13 @@
         <v>-122.4573024</v>
       </c>
       <c r="D498" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="E498" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -8779,10 +10297,13 @@
         <v>-122.25655159999999</v>
       </c>
       <c r="D499" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="E499" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -8793,15 +10314,14 @@
         <v>-122.25159650000001</v>
       </c>
       <c r="D500" t="s">
-        <v>315</v>
+        <v>314</v>
+      </c>
+      <c r="E500" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D500">
-    <sortState ref="A2:D500">
-      <sortCondition ref="A1:A500"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E500"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>